--- a/Dados/ativos_mapeados_com_taxa_efetiva.xlsx
+++ b/Dados/ativos_mapeados_com_taxa_efetiva.xlsx
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.01698390835048</v>
+        <v>1.01626291113667</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.04930848964102</v>
+        <v>1.04914803198956</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.063478974290611</v>
+        <v>1.063444274720136</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.04930848964102</v>
+        <v>1.04914803198956</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.04930848964102</v>
+        <v>1.04914803198956</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.04930848964102</v>
+        <v>1.04914803198956</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.031840722188163</v>
+        <v>1.031829081836553</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.031840722188163</v>
+        <v>1.031829081836553</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.026874811633497</v>
+        <v>1.026863584150054</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.024547</v>
+        <v>1.023478</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.024547</v>
+        <v>1.023478</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.026874811633497</v>
+        <v>1.026863584150054</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.039822</v>
+        <v>1.033776</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.039822</v>
+        <v>1.033776</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.039822</v>
+        <v>1.033776</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.039822</v>
+        <v>1.033776</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.039822</v>
+        <v>1.033776</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.02187675253184</v>
+        <v>1.0214880754061</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.02371933675063</v>
+        <v>1.023717981133232</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.02187675253184</v>
+        <v>1.0214880754061</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.03796961143561</v>
+        <v>1.03646883318903</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.03796961143561</v>
+        <v>1.03646883318903</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.03796961143561</v>
+        <v>1.03646883318903</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.03796961143561</v>
+        <v>1.03646883318903</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.03796961143561</v>
+        <v>1.03646883318903</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.052497511872065</v>
+        <v>1.052496989365938</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.052497511872065</v>
+        <v>1.052496989365938</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.03796961143561</v>
+        <v>1.03646883318903</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0.004753</v>
+        <v>0.004631489999999999</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.01544542814405</v>
+        <v>1.015410742948245</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1.017175066060443</v>
+        <v>1.016986606155351</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0.004753</v>
+        <v>0.004631489999999999</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1.03773</v>
+        <v>1.035227</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1.042566</v>
+        <v>1.040176</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1.052429436171813</v>
+        <v>1.052313344428008</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1.042049</v>
+        <v>1.040961</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1.055015</v>
+        <v>1.054204</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1.055015</v>
+        <v>1.054204</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1.055015</v>
+        <v>1.054204</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1.065584209282211</v>
+        <v>1.065546013110859</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1.055015</v>
+        <v>1.054204</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1.208957</v>
+        <v>1.204881</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1.208957</v>
+        <v>1.204881</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1.208957</v>
+        <v>1.204881</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1.208957</v>
+        <v>1.204881</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1.208957</v>
+        <v>1.204881</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1.208957</v>
+        <v>1.204881</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1.0945</v>
+        <v>1.093356</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1.063478974290611</v>
+        <v>1.063444274720136</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1.063478974290611</v>
+        <v>1.063444274720136</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1.063478974290611</v>
+        <v>1.063444274720136</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1.145716227962632</v>
+        <v>1.14562738029689</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1.145716227962632</v>
+        <v>1.14562738029689</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1.145716227962632</v>
+        <v>1.14562738029689</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>

--- a/Dados/ativos_mapeados_com_taxa_efetiva.xlsx
+++ b/Dados/ativos_mapeados_com_taxa_efetiva.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.063444274720136</v>
+        <v>1.063409387695841</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.031829081836553</v>
+        <v>1.031817298791002</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.031829081836553</v>
+        <v>1.031817298791002</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.026863584150054</v>
+        <v>1.026852221519505</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.026863584150054</v>
+        <v>1.026852221519505</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.033776</v>
+        <v>1.032916</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.033776</v>
+        <v>1.032916</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.033776</v>
+        <v>1.032916</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.033776</v>
+        <v>1.032916</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.033776</v>
+        <v>1.032916</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.023717981133232</v>
+        <v>1.023716532026945</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.052496989365938</v>
+        <v>1.052496458078459</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.052496989365938</v>
+        <v>1.052496458078459</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.015410742948245</v>
+        <v>1.015372205217782</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1.016986606155351</v>
+        <v>1.016795282246594</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1.052313344428008</v>
+        <v>1.052196671647389</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1.065546013110859</v>
+        <v>1.065507684983071</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1.063444274720136</v>
+        <v>1.063409387695841</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1.063444274720136</v>
+        <v>1.063409387695841</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1.063444274720136</v>
+        <v>1.063409387695841</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1.14562738029689</v>
+        <v>1.145538339377201</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1.14562738029689</v>
+        <v>1.145538339377201</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1.14562738029689</v>
+        <v>1.145538339377201</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>

--- a/Dados/ativos_mapeados_com_taxa_efetiva.xlsx
+++ b/Dados/ativos_mapeados_com_taxa_efetiva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,32 +537,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AGIBANK</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>BBRASIL FIM</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CDB3251WXH0</t>
+          <t>CDB3239C4TL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BRAGBKC00M66</t>
+          <t>BRBPACC0F3U7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2027-03-08 00:00:00</t>
+          <t>2026-07-20 00:00:00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.04914803198956</v>
+        <v>1.01626291113667</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -606,11 +606,11 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.063409387695841</v>
+        <v>1.04914803198956</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -630,7 +630,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -650,11 +650,11 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.04914803198956</v>
+        <v>1.063409387695841</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -674,7 +674,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TOPAZIO INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PARANA BANCO S.A.</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>TOPAZIO INFRA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CDB3253PPYA</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BRPRBCC059P8</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-03-10 00:00:00</t>
+          <t>2027-03-08 00:00:00</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.09</v>
+        <v>1.04914803198956</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -907,22 +907,18 @@
           <t>BRPRBCC059P8</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>606488-CDB</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>2026-03-10 00:00:00</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.031817298791002</v>
+        <v>1.09</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -942,7 +938,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MANACA INFRA</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -955,18 +951,22 @@
           <t>BRPRBCC059P8</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>606488-CDB</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>2026-03-10 00:00:00</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.09</v>
+        <v>1.031817298791002</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -986,7 +986,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -999,22 +999,18 @@
           <t>BRPRBCC059P8</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>606488-CDB</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>2026-03-10 00:00:00</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.031817298791002</v>
+        <v>1.09</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -1029,36 +1025,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BANCO VOLKSWAGEN S/A</t>
+          <t>PARANA BANCO S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BBRASIL FIM CP RESP</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CDB424EERW3</t>
+          <t>CDB3253PPYA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BRBVKWC00WA0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>BRPRBCC059P8</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>606488-CDB</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-05-04 00:00:00</t>
+          <t>2026-03-10 00:00:00</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.0125</v>
+        <v>1.031817298791002</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -1073,40 +1073,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BANCO INTER SA</t>
+          <t>BANCO VOLKSWAGEN S/A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>BBRASIL FIM CP RESP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CDB7257QUDF</t>
+          <t>CDB424EERW3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BRBIDIC002H4</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>613312-CDB</t>
-        </is>
-      </c>
+          <t>BRBVKWC00WA0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-07-10 00:00:00</t>
+          <t>2026-05-04 00:00:00</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.026852221519505</v>
+        <v>1.0125</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -1121,32 +1117,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BANCO INTER SA</t>
+          <t>BANCO VOLKSWAGEN S/A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BBRASIL FIM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CDB7257QUDG</t>
+          <t>CDB424EERW3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BRBIDIC002H4</t>
+          <t>BRBVKWC00WA0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-07-10 00:00:00</t>
+          <t>2026-05-04 00:00:00</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.023478</v>
+        <v>1.0125</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1170,12 +1166,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CDB7257QUDH</t>
+          <t>CDB7257QUDF</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1183,18 +1179,22 @@
           <t>BRBIDIC002H4</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>613312-CDB</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>2026-07-10 00:00:00</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.023478</v>
+        <v>1.026852221519505</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CDB7257QUDI</t>
+          <t>CDB7257QUDG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1227,22 +1227,18 @@
           <t>BRBIDIC002H4</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>613315-CDB</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>2026-07-10 00:00:00</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.026852221519505</v>
+        <v>1.023478</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -1257,36 +1253,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BANCO VOLKSWAGEN S/A</t>
+          <t>BANCO INTER SA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BBRASIL FIM CP RESP</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CDB925CDN0L</t>
+          <t>CDB7257QUDH</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BRBVKWC01543</t>
+          <t>BRBIDIC002H4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-12-22 00:00:00</t>
+          <t>2026-07-10 00:00:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.015</v>
+        <v>1.023478</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -1296,35 +1292,45 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>CDB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
+          <t>BANCO INTER SA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HAPV21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>CDB7257QUDI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BRBIDIC002H4</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>613315-CDB</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>2026-07-10 00:00:00</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1.026852221519505</v>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -1334,43 +1340,41 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Debêntures</t>
+          <t>CDB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
+          <t>BANCO VOLKSWAGEN S/A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>BBRASIL FIM CP RESP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HAPV21</t>
+          <t>CDB925CDN0L</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BRHAPVDBS014</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>362409-HAP</t>
-        </is>
-      </c>
+          <t>BRBVKWC01543</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-07-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>2025-12-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1.015</v>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -1385,36 +1389,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KLABIN S/A</t>
+          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>KLBNA2</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BRKLBNDBS004</t>
-        </is>
-      </c>
+          <t>HAPV21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2029-03-19 00:00:00</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1.032916</v>
-      </c>
+          <t>2026-07-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -1429,36 +1427,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KLABIN S/A</t>
+          <t>HAPVIDA PARTICIPACOES E INVESTIMENTOS S/A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KLBNA2</t>
+          <t>HAPV21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BRKLBNDBS004</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>BRHAPVDBS014</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>362409-HAP</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2029-03-19 00:00:00</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1.032916</v>
-      </c>
+          <t>2026-07-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.032916</v>
+        <v>1.032709</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.032916</v>
+        <v>1.032709</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1579,66 +1579,62 @@
           <t>BRKLBNDBS004</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>353017-KLB</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>2029-03-19 00:00:00</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.032916</v>
+        <v>1.032709</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>KLABIN S/A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LF00240072E</t>
+          <t>KLBNA2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BRBCXPLFIKS5</t>
+          <t>BRKLBNDBS004</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-03-02 00:00:00</t>
+          <t>2029-03-19 00:00:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.0225</v>
+        <v>1.032709</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -1648,51 +1644,55 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>Debêntures</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>KLABIN S/A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LF0024007Y4</t>
+          <t>KLBNA2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BRBCXPLFIO68</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>BRKLBNDBS004</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>353017-KLB</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-03-16 00:00:00</t>
+          <t>2029-03-19 00:00:00</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.0214880754061</v>
+        <v>1.032709</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1707,26 +1707,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LF0024008OB</t>
+          <t>LF00240072E</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BRBCXPLFIO76</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>614522-CDB</t>
-        </is>
-      </c>
+          <t>BRBCXPLFIKS5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-03-23 00:00:00</t>
+          <t>2026-03-02 00:00:00</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.023716532026945</v>
+        <v>1.0225</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1755,18 +1751,18 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LF0024008OB</t>
+          <t>LF0024007Y4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BRBCXPLFIO76</t>
+          <t>BRBCXPLFIO68</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-03-23 00:00:00</t>
+          <t>2026-03-16 00:00:00</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1784,41 +1780,45 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Letra Financeira</t>
+          <t>CDB</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LF002400KBT</t>
+          <t>LF0024008OB</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>BRBCXPLFIO76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>614522-CDB</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-07-31 00:00:00</t>
+          <t>2026-03-23 00:00:00</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.03646883318903</v>
+        <v>1.023716532026945</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1843,22 +1843,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LF002400KBU</t>
+          <t>LF0024008OB</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BRBMEBLFI8V4</t>
+          <t>BRBCXPLFIO76</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-07-31 00:00:00</t>
+          <t>2026-03-23 00:00:00</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.03646883318903</v>
+        <v>1.0214880754061</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LF002400KBW</t>
+          <t>LF002400KBT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MANACA INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LF002400KBX</t>
+          <t>LF002400KBU</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1970,12 +1970,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LF002400KBY</t>
+          <t>LF002400KBW</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LF002400KC0</t>
+          <t>LF002400KBX</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2027,22 +2027,18 @@
           <t>BRBMEBLFI8V4</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>567797-LF0</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>2026-07-31 00:00:00</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.052496458078459</v>
+        <v>1.03646883318903</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -2062,12 +2058,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LF002400KC1</t>
+          <t>LF002400KBY</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2075,22 +2071,18 @@
           <t>BRBMEBLFI8V4</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>567798-LF0</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>2026-07-31 00:00:00</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.052496458078459</v>
+        <v>1.03646883318903</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -2110,12 +2102,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TOPAZIO INFRA</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LF002400KC2</t>
+          <t>LF002400KC0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2123,18 +2115,22 @@
           <t>BRBMEBLFI8V4</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>567797-LF0</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>2026-07-31 00:00:00</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.03646883318903</v>
+        <v>1.052496458078459</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -2144,41 +2140,45 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LFSC19003FD</t>
+          <t>LF002400KC1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BRABCBLFN7I2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>BRBMEBLFI8V4</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>567798-LF0</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2024-10-17 00:00:00</t>
+          <t>2026-07-31 00:00:00</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.0108</v>
+        <v>1.052496458078459</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -2188,37 +2188,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LFSC</t>
+          <t>Letra Financeira</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO MERCANTIL DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>TOPAZIO INFRA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LFSC19003W3</t>
+          <t>LF002400KC2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BRABCBLFN7I2</t>
+          <t>BRBMEBLFI8V4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2024-10-17 00:00:00</t>
+          <t>2026-07-31 00:00:00</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.0108</v>
+        <v>1.03646883318903</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2242,12 +2242,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LFSC19003W4</t>
+          <t>LFSC19003FD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2291,22 +2291,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LFSC190054C</t>
+          <t>LFSC19003W3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BRBNBRLFI013</t>
+          <t>BRABCBLFN7I2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2024-06-11 00:00:00</t>
+          <t>2024-10-17 00:00:00</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.65</v>
+        <v>0.0108</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2325,32 +2325,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LFSC190054D</t>
+          <t>LFSC19003W4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BRBNBRLFI021</t>
+          <t>BRABCBLFN7I2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2024-06-11 00:00:00</t>
+          <t>2024-10-17 00:00:00</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.65</v>
+        <v>0.0108</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2374,17 +2374,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LFSC190054D</t>
+          <t>LFSC190054C</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BRBNBRLFI021</t>
+          <t>BRBNBRLFI013</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MANACA INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2506,23 +2506,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LFSC190054I</t>
+          <t>LFSC190054D</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BRBNBRLFI039</t>
+          <t>BRBNBRLFI021</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2024-06-12 00:00:00</t>
+          <t>2024-06-11 00:00:00</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2550,23 +2550,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LFSC190054I</t>
+          <t>LFSC190054D</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>BRBNBRLFI039</t>
+          <t>BRBNBRLFI021</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2024-06-12 00:00:00</t>
+          <t>2024-06-11 00:00:00</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2594,17 +2594,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LFSC190059S</t>
+          <t>LFSC190054I</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>BRBNBRLFI062</t>
+          <t>BRBNBRLFI039</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2638,23 +2638,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LFSC19005FF</t>
+          <t>LFSC190054I</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0C5</t>
+          <t>BRBNBRLFI039</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-06-18 00:00:00</t>
+          <t>2024-06-12 00:00:00</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2687,18 +2687,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LFSC19005FF</t>
+          <t>LFSC190059S</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0C5</t>
+          <t>BRBNBRLFI062</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2024-06-18 00:00:00</t>
+          <t>2024-06-12 00:00:00</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2726,23 +2726,23 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LFSC19005L1</t>
+          <t>LFSC19005FF</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0F8</t>
+          <t>BRBNBRLFI0C5</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2024-06-19 00:00:00</t>
+          <t>2024-06-18 00:00:00</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2770,23 +2770,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LFSC19005L3</t>
+          <t>LFSC19005FF</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0G6</t>
+          <t>BRBNBRLFI0C5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2024-06-21 00:00:00</t>
+          <t>2024-06-18 00:00:00</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2814,23 +2814,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LFSC19005L3</t>
+          <t>LFSC19005L1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>BRBNBRLFI0G6</t>
+          <t>BRBNBRLFI0F8</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2024-06-21 00:00:00</t>
+          <t>2024-06-19 00:00:00</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2853,32 +2853,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LFSC19007G2</t>
+          <t>LFSC19005L3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>BRABCBLFIM30</t>
+          <t>BRBNBRLFI0G6</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2024-10-17 00:00:00</t>
+          <t>2024-06-21 00:00:00</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0.004631489999999999</v>
+        <v>1.65</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2892,45 +2892,41 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BANCO BRADESCO S.A.</t>
+          <t>BANCO DO NORDESTE DO BRASIL S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LFSN1800DG1</t>
+          <t>LFSC19005L3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BRBBDCLTR2X9</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>407137-LFS</t>
-        </is>
-      </c>
+          <t>BRBNBRLFI0G6</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2026-08-03 00:00:00</t>
+          <t>2024-06-21 00:00:00</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.015372205217782</v>
+        <v>1.65</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -2940,37 +2936,37 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LFSN</t>
+          <t>LFSC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BANCO BRADESCO S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LFSN1800DIG</t>
+          <t>LFSC19007G2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>BRBBDCLTROH4</t>
+          <t>BRABCBLFIM30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026-08-03 00:00:00</t>
+          <t>2024-10-17 00:00:00</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1.024309</v>
+        <v>0.004631489999999999</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2989,7 +2985,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BANCO SAFRA S.A.</t>
+          <t>BANCO BRADESCO S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2999,26 +2995,26 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LFSN1800DS5</t>
+          <t>LFSN1800DG1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BRBSAFLNN8B3</t>
+          <t>BRBBDCLTR2X9</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>335769-LFS</t>
+          <t>407137-LFS</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2026-08-17 00:00:00</t>
+          <t>2026-08-03 00:00:00</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1.016795282246594</v>
+        <v>1.015372205217782</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3037,7 +3033,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BANCO ABC BRASIL S.A.</t>
+          <t>BANCO BRADESCO S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3047,22 +3043,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LFSN1800E2G</t>
+          <t>LFSN1800DIG</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BRABCBLFIM22</t>
+          <t>BRBBDCLTROH4</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-09-29 00:00:00</t>
+          <t>2026-08-03 00:00:00</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0.004631489999999999</v>
+        <v>1.02361</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3086,31 +3082,35 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LFSN1800HXO</t>
+          <t>LFSN1800DS5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>BRBSAFLNN7R1</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>BRBSAFLNN8B3</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>335769-LFS</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2026-11-06 00:00:00</t>
+          <t>2026-08-17 00:00:00</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1.035227</v>
+        <v>1.016795282246594</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BANCO SAFRA S.A.</t>
+          <t>BANCO ABC BRASIL S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3135,22 +3135,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LFSN1900008</t>
+          <t>LFSN1800E2G</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>BRBSAFLFNBB5</t>
+          <t>BRABCBLFIM22</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2027-01-08 00:00:00</t>
+          <t>2025-09-29 00:00:00</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1.040176</v>
+        <v>0.004631489999999999</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3169,40 +3169,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LFSN19001BC</t>
+          <t>LFSN1800HXO</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BRBPACLFIVQ4</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>353997-N L</t>
-        </is>
-      </c>
+          <t>BRBSAFLNN7R1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2027-04-09 00:00:00</t>
+          <t>2026-11-06 00:00:00</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1.052196671647389</v>
+        <v>1.035227</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -3217,32 +3213,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BANCO BTG PACTUAL S.A.</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LFSN19001BH</t>
+          <t>LFSN1900008</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BRBPACLFIVQ4</t>
+          <t>BRBSAFLFNBB5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2027-04-09 00:00:00</t>
+          <t>2027-01-08 00:00:00</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1.040961</v>
+        <v>1.040176</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3266,31 +3262,35 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LFSN19006KM</t>
+          <t>LFSN19001BC</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BRBPACLFIWC2</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>BRBPACLFIVQ4</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>353997-N L</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2028-05-31 00:00:00</t>
+          <t>2027-04-09 00:00:00</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1.054204</v>
+        <v>1.052196671647389</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -3310,27 +3310,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HORIZONTE FIM</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LFSN19006KM</t>
+          <t>LFSN19001BH</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>BRBPACLFIWC2</t>
+          <t>BRBPACLFIVQ4</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2028-05-31 00:00:00</t>
+          <t>2027-04-09 00:00:00</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1.054204</v>
+        <v>1.040961</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MANACA INFRA</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>HORIZONTE FIM</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3411,22 +3411,18 @@
           <t>BRBPACLFIWC2</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>513453-LFS</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
           <t>2028-05-31 00:00:00</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1.065507684983071</v>
+        <v>1.054204</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -3446,12 +3442,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>MANACA INFRA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LFSN19006KN</t>
+          <t>LFSN19006KM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3485,36 +3481,40 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BANCO BMG S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LFSN1900971</t>
+          <t>LFSN19006KM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>BRBMGBLFI489</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>BRBPACLFIWC2</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>513453-LFS</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2026-06-22 00:00:00</t>
+          <t>2028-05-31 00:00:00</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1.204881</v>
+        <v>1.065507684983071</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>MATRIZ</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -3529,32 +3529,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BANCO BMG S.A.</t>
+          <t>BANCO BTG PACTUAL S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BORDEAUX INFRA</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LFSN1900971</t>
+          <t>LFSN19006KN</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>BRBMGBLFI489</t>
+          <t>BRBPACLFIWC2</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2026-06-22 00:00:00</t>
+          <t>2028-05-31 00:00:00</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1.204881</v>
+        <v>1.054204</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>FIRF GERAES</t>
+          <t>BORDEAUX INFRA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3666,23 +3666,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BH INFRA</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LFSN19009YU</t>
+          <t>LFSN1900971</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>BRBMGBLFI6I3</t>
+          <t>BRBMGBLFI489</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2026-06-26 00:00:00</t>
+          <t>2026-06-22 00:00:00</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3715,18 +3715,18 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LFSN19009YU</t>
+          <t>LFSN1900971</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>BRBMGBLFI6I3</t>
+          <t>BRBMGBLFI489</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2026-06-26 00:00:00</t>
+          <t>2026-06-22 00:00:00</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3749,32 +3749,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BANCO SAFRA S.A.</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FIRF GERAES 30</t>
+          <t>BH INFRA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LFSN1900CR5</t>
+          <t>LFSN19009YU</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BRBSAFLFNG47</t>
+          <t>BRBMGBLFI6I3</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2029-08-13 00:00:00</t>
+          <t>2026-06-26 00:00:00</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1.093356</v>
+        <v>1.204881</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3788,45 +3788,41 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AGIBANK</t>
+          <t>BANCO BMG S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>FIRF GERAES</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CDB3251WXH0</t>
+          <t>LFSN19009YU</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>BRAGBKC00M66</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>614522-CDB</t>
-        </is>
-      </c>
+          <t>BRBMGBLFI6I3</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2027-03-08 00:00:00</t>
+          <t>2026-06-26 00:00:00</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1.063409387695841</v>
+        <v>1.204881</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -3836,45 +3832,41 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>LFSN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AGIBANK</t>
+          <t>BANCO SAFRA S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>FIRF GERAES 30</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CDB3251WXH0</t>
+          <t>LFSN1900CR5</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>BRAGBKC00M66</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>353997-N L</t>
-        </is>
-      </c>
+          <t>BRBSAFLFNG47</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2027-03-08 00:00:00</t>
+          <t>2029-08-13 00:00:00</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1.063409387695841</v>
+        <v>1.093356</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>MATRIZ</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -3894,7 +3886,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>REAL FIM</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3909,7 +3901,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>353997-N L</t>
+          <t>614522-CDB</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3937,36 +3929,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BMG SEG</t>
+          <t>JERA2026</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LF00240072E</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>BRBCXPLFIKS5</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>614522-CDB</t>
+          <t>353997-N L</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2026-03-02 00:00:00</t>
+          <t>2027-03-08 00:00:00</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1.0225</v>
+        <v>1.063409387695841</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3985,22 +3977,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BANCO XP</t>
+          <t>AGIBANK</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>REAL FIM</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LF00240072E</t>
+          <t>CDB3251WXH0</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>BRBCXPLFIKS5</t>
+          <t>BRAGBKC00M66</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4010,11 +4002,11 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2026-03-02 00:00:00</t>
+          <t>2027-03-08 00:00:00</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1.0225</v>
+        <v>1.063409387695841</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4033,36 +4025,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BANCO BMG S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JERA2026</t>
+          <t>BMG SEG</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LFSC19002CD</t>
+          <t>LF00240072E</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BRBMGBLFI7Q4</t>
+          <t>BRBCXPLFIKS5</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>609712-LFS</t>
+          <t>614522-CDB</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2029-04-09 00:00:00</t>
+          <t>2026-03-02 00:00:00</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1.145538339377201</v>
+        <v>1.0225</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4081,7 +4073,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BANCO BMG S.A.</t>
+          <t>BANCO XP</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4091,26 +4083,26 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LFSC19002CE</t>
+          <t>LF00240072E</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BRBMGBLFI7P6</t>
+          <t>BRBCXPLFIKS5</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>609711-LFS</t>
+          <t>353997-N L</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2029-04-09 00:00:00</t>
+          <t>2026-03-02 00:00:00</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1.145538339377201</v>
+        <v>1.0225</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4139,17 +4131,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LFSC19002HS</t>
+          <t>LFSC19002CD</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>BRBMGBLFI7R2</t>
+          <t>BRBMGBLFI7Q4</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>609713-LFS</t>
+          <t>609712-LFS</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4166,6 +4158,102 @@
         </is>
       </c>
       <c r="J83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CDB</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BANCO BMG S.A.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>JERA2026</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>LFSC19002CE</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>BRBMGBLFI7P6</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>609711-LFS</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2029-04-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1.145538339377201</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>MATRIZ</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CDB</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BANCO BMG S.A.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>JERA2026</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LFSC19002HS</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>BRBMGBLFI7R2</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>609713-LFS</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2029-04-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1.145538339377201</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>MATRIZ</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
